--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>151.6072964668274</v>
+        <v>126.252295589447</v>
       </c>
       <c r="C2">
-        <v>0.7351576216545394</v>
+        <v>2.532700610986595</v>
       </c>
       <c r="D2">
-        <v>1.126189804077149</v>
+        <v>1.115542268753052</v>
       </c>
       <c r="E2">
-        <v>0.05349754697248955</v>
+        <v>0.1634631134554174</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7845117845117845</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="K2">
-        <v>0.8114478114478114</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L2">
-        <v>0.793918918918919</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M2">
-        <v>0.8108108108108109</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="N2">
-        <v>0.7804054054054054</v>
+        <v>0.7905982905982906</v>
       </c>
       <c r="O2">
-        <v>0.7962189462189462</v>
+        <v>0.7751409347154028</v>
       </c>
       <c r="P2">
-        <v>0.01294029893245345</v>
+        <v>0.03400229674394581</v>
       </c>
       <c r="Q2">
         <v>16</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>295.9806170940399</v>
+        <v>246.872664642334</v>
       </c>
       <c r="C3">
-        <v>3.032050284522456</v>
+        <v>1.353709186814066</v>
       </c>
       <c r="D3">
-        <v>1.138424587249756</v>
+        <v>1.053472280502319</v>
       </c>
       <c r="E3">
-        <v>0.04276333664688377</v>
+        <v>0.0424919047404017</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,25 +611,25 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7845117845117845</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K3">
-        <v>0.8114478114478114</v>
+        <v>0.7319148936170212</v>
       </c>
       <c r="L3">
-        <v>0.8040540540540541</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="M3">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N3">
-        <v>0.7905405405405406</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O3">
-        <v>0.8009486759486759</v>
+        <v>0.7760065466448445</v>
       </c>
       <c r="P3">
-        <v>0.01160764483485785</v>
+        <v>0.02811774434154455</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>588.3957647323608</v>
+        <v>489.2687978744507</v>
       </c>
       <c r="C4">
-        <v>1.657350697792641</v>
+        <v>2.088638246224441</v>
       </c>
       <c r="D4">
-        <v>1.118949174880981</v>
+        <v>1.214611005783081</v>
       </c>
       <c r="E4">
-        <v>0.03817253312793479</v>
+        <v>0.1512280779726354</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7710437710437711</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K4">
-        <v>0.8181818181818182</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L4">
-        <v>0.793918918918919</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="M4">
-        <v>0.8175675675675675</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N4">
-        <v>0.7972972972972973</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O4">
-        <v>0.7996018746018747</v>
+        <v>0.7819312602291326</v>
       </c>
       <c r="P4">
-        <v>0.01744220609816323</v>
+        <v>0.0182666642565243</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>151.4379639148712</v>
+        <v>126.0701298236847</v>
       </c>
       <c r="C5">
-        <v>0.6693129563908147</v>
+        <v>0.7379490144250626</v>
       </c>
       <c r="D5">
-        <v>1.189203500747681</v>
+        <v>1.044546985626221</v>
       </c>
       <c r="E5">
-        <v>0.05892011026515845</v>
+        <v>0.03617091231430056</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,25 +717,25 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7845117845117845</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="K5">
-        <v>0.8114478114478114</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L5">
-        <v>0.793918918918919</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M5">
-        <v>0.8108108108108109</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="N5">
-        <v>0.7804054054054054</v>
+        <v>0.7905982905982906</v>
       </c>
       <c r="O5">
-        <v>0.7962189462189462</v>
+        <v>0.7751409347154028</v>
       </c>
       <c r="P5">
-        <v>0.01294029893245345</v>
+        <v>0.03400229674394581</v>
       </c>
       <c r="Q5">
         <v>16</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>295.8079530715942</v>
+        <v>248.2222033977509</v>
       </c>
       <c r="C6">
-        <v>1.816088446705161</v>
+        <v>2.115320521666607</v>
       </c>
       <c r="D6">
-        <v>1.188277435302734</v>
+        <v>1.09271354675293</v>
       </c>
       <c r="E6">
-        <v>0.04219668381054714</v>
+        <v>0.0547458299221872</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,25 +770,25 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.7845117845117845</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K6">
-        <v>0.8114478114478114</v>
+        <v>0.7319148936170212</v>
       </c>
       <c r="L6">
-        <v>0.8040540540540541</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="M6">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N6">
-        <v>0.7905405405405406</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O6">
-        <v>0.8009486759486759</v>
+        <v>0.7760065466448445</v>
       </c>
       <c r="P6">
-        <v>0.01160764483485785</v>
+        <v>0.02811774434154455</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>590.1840208053588</v>
+        <v>491.3675094127655</v>
       </c>
       <c r="C7">
-        <v>3.878027901748787</v>
+        <v>1.481394093642365</v>
       </c>
       <c r="D7">
-        <v>1.255992031097412</v>
+        <v>1.147619724273682</v>
       </c>
       <c r="E7">
-        <v>0.1273452018266824</v>
+        <v>0.07331906913002409</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7710437710437711</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L7">
-        <v>0.793918918918919</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="M7">
-        <v>0.8175675675675675</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N7">
-        <v>0.7972972972972973</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O7">
-        <v>0.7996018746018747</v>
+        <v>0.7819312602291326</v>
       </c>
       <c r="P7">
-        <v>0.01744220609816323</v>
+        <v>0.0182666642565243</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>150.7124445438385</v>
+        <v>126.6165143489838</v>
       </c>
       <c r="C8">
-        <v>0.6381695243468365</v>
+        <v>1.070895491870624</v>
       </c>
       <c r="D8">
-        <v>1.178990316390991</v>
+        <v>1.061511564254761</v>
       </c>
       <c r="E8">
-        <v>0.07433957950358679</v>
+        <v>0.06258126757202499</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7845117845117845</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="K8">
-        <v>0.8114478114478114</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L8">
-        <v>0.793918918918919</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M8">
-        <v>0.8108108108108109</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="N8">
-        <v>0.7804054054054054</v>
+        <v>0.7905982905982906</v>
       </c>
       <c r="O8">
-        <v>0.7962189462189462</v>
+        <v>0.7751409347154028</v>
       </c>
       <c r="P8">
-        <v>0.01294029893245345</v>
+        <v>0.03400229674394581</v>
       </c>
       <c r="Q8">
         <v>16</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>299.3992476463318</v>
+        <v>246.0936964511871</v>
       </c>
       <c r="C9">
-        <v>4.343104769391879</v>
+        <v>1.194584778358449</v>
       </c>
       <c r="D9">
-        <v>1.238472700119019</v>
+        <v>1.04787392616272</v>
       </c>
       <c r="E9">
-        <v>0.09379336869225632</v>
+        <v>0.02689566432830435</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,25 +929,25 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7845117845117845</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K9">
-        <v>0.8114478114478114</v>
+        <v>0.7319148936170212</v>
       </c>
       <c r="L9">
-        <v>0.8040540540540541</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="M9">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N9">
-        <v>0.7905405405405406</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O9">
-        <v>0.8009486759486759</v>
+        <v>0.7760065466448445</v>
       </c>
       <c r="P9">
-        <v>0.01160764483485785</v>
+        <v>0.02811774434154455</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>601.41907954216</v>
+        <v>487.1323921203613</v>
       </c>
       <c r="C10">
-        <v>3.886294105388176</v>
+        <v>2.620914021985151</v>
       </c>
       <c r="D10">
-        <v>1.262118434906006</v>
+        <v>1.054905319213867</v>
       </c>
       <c r="E10">
-        <v>0.17102647880362</v>
+        <v>0.06393930322073368</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7710437710437711</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L10">
-        <v>0.793918918918919</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="M10">
-        <v>0.8175675675675675</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N10">
-        <v>0.7972972972972973</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O10">
-        <v>0.7996018746018747</v>
+        <v>0.7819312602291326</v>
       </c>
       <c r="P10">
-        <v>0.01744220609816323</v>
+        <v>0.0182666642565243</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>256.7206205368042</v>
+        <v>200.7952862262726</v>
       </c>
       <c r="C11">
-        <v>4.226925041418164</v>
+        <v>0.9305540677825398</v>
       </c>
       <c r="D11">
-        <v>1.353908205032349</v>
+        <v>1.079675674438477</v>
       </c>
       <c r="E11">
-        <v>0.2367007602302289</v>
+        <v>0.07946847080706726</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,28 +1035,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L11">
-        <v>0.8141891891891891</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="M11">
-        <v>0.7972972972972973</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N11">
-        <v>0.8209459459459459</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O11">
-        <v>0.8144326144326144</v>
+        <v>0.7836697581378432</v>
       </c>
       <c r="P11">
-        <v>0.009446116829121234</v>
+        <v>0.03116980004243094</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>498.5319200515747</v>
+        <v>393.3219874382019</v>
       </c>
       <c r="C12">
-        <v>2.753498676679435</v>
+        <v>2.638630151651159</v>
       </c>
       <c r="D12">
-        <v>1.121533727645874</v>
+        <v>1.080135345458984</v>
       </c>
       <c r="E12">
-        <v>0.02418330254918911</v>
+        <v>0.08319124918889872</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8282828282828283</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K12">
-        <v>0.8316498316498316</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L12">
-        <v>0.8344594594594594</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M12">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N12">
-        <v>0.8108108108108109</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O12">
-        <v>0.8238784238784239</v>
+        <v>0.782818694308056</v>
       </c>
       <c r="P12">
-        <v>0.009554011210189096</v>
+        <v>0.02147952644971909</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>952.5270706176758</v>
+        <v>755.2623684406281</v>
       </c>
       <c r="C13">
-        <v>10.02204585732933</v>
+        <v>1.866882201860358</v>
       </c>
       <c r="D13">
-        <v>1.243531227111816</v>
+        <v>1.099753379821777</v>
       </c>
       <c r="E13">
-        <v>0.1860840697504767</v>
+        <v>0.1151702403595287</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,28 +1141,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="K13">
-        <v>0.8215488215488216</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L13">
-        <v>0.8412162162162162</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="M13">
-        <v>0.8243243243243243</v>
+        <v>0.8</v>
       </c>
       <c r="N13">
-        <v>0.8108108108108109</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O13">
-        <v>0.8245631995631996</v>
+        <v>0.7751554828150573</v>
       </c>
       <c r="P13">
-        <v>0.00975416875879339</v>
+        <v>0.02537751797291475</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>248.9491388320923</v>
+        <v>200.424781370163</v>
       </c>
       <c r="C14">
-        <v>1.436630979894357</v>
+        <v>0.9011002734419271</v>
       </c>
       <c r="D14">
-        <v>1.246695232391357</v>
+        <v>1.057651853561401</v>
       </c>
       <c r="E14">
-        <v>0.1422316834508486</v>
+        <v>0.02752248455894615</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L14">
-        <v>0.8141891891891891</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="M14">
-        <v>0.7972972972972973</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N14">
-        <v>0.8209459459459459</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O14">
-        <v>0.8144326144326144</v>
+        <v>0.7836697581378432</v>
       </c>
       <c r="P14">
-        <v>0.009446116829121234</v>
+        <v>0.03116980004243094</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>487.7387493133545</v>
+        <v>393.9644478797912</v>
       </c>
       <c r="C15">
-        <v>1.798672915805157</v>
+        <v>1.714323568784391</v>
       </c>
       <c r="D15">
-        <v>1.265405511856079</v>
+        <v>1.035970020294189</v>
       </c>
       <c r="E15">
-        <v>0.1633626800546517</v>
+        <v>0.04371067858185509</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8282828282828283</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K15">
-        <v>0.8316498316498316</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>0.8344594594594594</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M15">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N15">
-        <v>0.8108108108108109</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O15">
-        <v>0.8238784238784239</v>
+        <v>0.782818694308056</v>
       </c>
       <c r="P15">
-        <v>0.009554011210189096</v>
+        <v>0.02147952644971909</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>944.2811935901642</v>
+        <v>753.3830567359925</v>
       </c>
       <c r="C16">
-        <v>2.701309450671131</v>
+        <v>4.839301410888211</v>
       </c>
       <c r="D16">
-        <v>1.179053974151611</v>
+        <v>1.095749568939209</v>
       </c>
       <c r="E16">
-        <v>0.102753160221162</v>
+        <v>0.1151560397422201</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,28 +1300,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8249158249158249</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="K16">
-        <v>0.8215488215488216</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L16">
-        <v>0.8412162162162162</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="M16">
-        <v>0.8243243243243243</v>
+        <v>0.8</v>
       </c>
       <c r="N16">
-        <v>0.8108108108108109</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O16">
-        <v>0.8245631995631996</v>
+        <v>0.7751554828150573</v>
       </c>
       <c r="P16">
-        <v>0.00975416875879339</v>
+        <v>0.02537751797291475</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>246.8768692970276</v>
+        <v>200.1276122570038</v>
       </c>
       <c r="C17">
-        <v>2.158405317604152</v>
+        <v>0.8741474506619059</v>
       </c>
       <c r="D17">
-        <v>1.185033798217773</v>
+        <v>1.155200719833374</v>
       </c>
       <c r="E17">
-        <v>0.1388201151790573</v>
+        <v>0.1730897323332244</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,28 +1353,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L17">
-        <v>0.8141891891891891</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="M17">
-        <v>0.7972972972972973</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N17">
-        <v>0.8209459459459459</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O17">
-        <v>0.8144326144326144</v>
+        <v>0.7836697581378432</v>
       </c>
       <c r="P17">
-        <v>0.009446116829121234</v>
+        <v>0.03116980004243094</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>478.7047126293182</v>
+        <v>386.0691440582276</v>
       </c>
       <c r="C18">
-        <v>9.682139318252817</v>
+        <v>6.54838030377497</v>
       </c>
       <c r="D18">
-        <v>1.234344959259033</v>
+        <v>0.9614781856536865</v>
       </c>
       <c r="E18">
-        <v>0.1853044865030186</v>
+        <v>0.07330760726739061</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8282828282828283</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K18">
-        <v>0.8316498316498316</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>0.8344594594594594</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="M18">
-        <v>0.8141891891891891</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="N18">
-        <v>0.8108108108108109</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O18">
-        <v>0.8238784238784239</v>
+        <v>0.782818694308056</v>
       </c>
       <c r="P18">
-        <v>0.009554011210189096</v>
+        <v>0.02147952644971909</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>762.1041614055633</v>
+        <v>617.5517903327942</v>
       </c>
       <c r="C19">
-        <v>32.6523913848562</v>
+        <v>29.4161269021902</v>
       </c>
       <c r="D19">
-        <v>0.7596582412719727</v>
+        <v>0.762101697921753</v>
       </c>
       <c r="E19">
-        <v>0.08135135571525473</v>
+        <v>0.1764677928616137</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,28 +1459,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8249158249158249</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="K19">
-        <v>0.8215488215488216</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L19">
-        <v>0.8412162162162162</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="M19">
-        <v>0.8243243243243243</v>
+        <v>0.8</v>
       </c>
       <c r="N19">
-        <v>0.8108108108108109</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O19">
-        <v>0.8245631995631996</v>
+        <v>0.7751554828150573</v>
       </c>
       <c r="P19">
-        <v>0.00975416875879339</v>
+        <v>0.02537751797291475</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
